--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>mitsuke.brave.arrows@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hiroshi.togu@nct9.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magara@nseinet.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,7 +810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -910,7 +920,9 @@
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13">
@@ -934,7 +946,9 @@
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13">
@@ -974,8 +988,10 @@
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E7" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E12" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -187,6 +187,28 @@
   </si>
   <si>
     <t>magara@nseinet.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>槻の森ユナイターズ</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＢＡＤＢＯＹ’Ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nakagawa.takafumi@nsg.gr.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bb-world@vanilla.ocn.ne.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -810,9 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -954,17 +974,25 @@
       <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
@@ -990,8 +1018,10 @@
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E10" r:id="rId6"/>
     <hyperlink ref="E12" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8"/>
+    <hyperlink ref="E14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId8"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -170,19 +170,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kh1089910899@docomo.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>medodedo720320@yahoo.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mitsuke.brave.arrows@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hiroshi.togu@nct9.ne.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,6 +201,26 @@
   </si>
   <si>
     <t>bb-world@vanilla.ocn.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川　貴史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平石　武</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hira@echigo.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>watanabe-hinako@tkcnf.or.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邊　日奈子</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,9 +891,11 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -893,7 +907,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -905,7 +919,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -939,9 +953,11 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -967,7 +983,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -975,11 +991,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -987,11 +1005,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -170,11 +170,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>kh1089910899@docomo.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>medodedo720320@yahoo.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mitsuke.brave.arrows@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hiroshi.togu@nct9.ne.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -201,26 +209,6 @@
   </si>
   <si>
     <t>bb-world@vanilla.ocn.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中川　貴史</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平石　武</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hira@echigo.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>watanabe-hinako@tkcnf.or.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>渡邊　日奈子</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -891,11 +879,9 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,7 +893,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,7 +905,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -953,11 +939,9 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -983,7 +967,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -991,13 +975,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,11 +987,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -102,9 +102,6 @@
     <t>ikkanou1206hatano@yahoo.co.jp</t>
   </si>
   <si>
-    <t>thatano@beige.plala.or.jp</t>
-  </si>
-  <si>
     <t>2019シースリーカップ　参加チーム　連絡先一覧</t>
     <rPh sb="13" eb="15">
       <t>サンカ</t>
@@ -209,6 +206,10 @@
   </si>
   <si>
     <t>bb-world@vanilla.ocn.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nakajima_8280@yahoo.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -845,7 +846,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -869,7 +870,7 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -881,7 +882,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -893,7 +894,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -905,7 +906,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -913,11 +914,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -925,11 +926,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -937,11 +938,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -963,11 +964,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -975,11 +976,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -987,11 +988,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1002,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="8"/>
@@ -1020,8 +1021,9 @@
     <hyperlink ref="E12" r:id="rId7"/>
     <hyperlink ref="E13" r:id="rId8"/>
     <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId11"/>
 </worksheet>
 </file>
--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -163,23 +163,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>freeway-jiggy-3@ezweb.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kh1089910899@docomo.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>medodedo720320@yahoo.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mitsuke.brave.arrows@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hiroshi.togu@nct9.ne.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,7 +197,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nakajima_8280@yahoo.co.jp</t>
+    <t>thatano@beige.plala.or.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">波多野　智秋 </t>
+  </si>
+  <si>
+    <t>hd10899@nifty.com</t>
+  </si>
+  <si>
+    <t>羽田　邦彦</t>
+  </si>
+  <si>
+    <t>戸川　聡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江戸　大輔</t>
+  </si>
+  <si>
+    <t>k.k_0428-basket.pian@docomo.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古俣　楓</t>
+  </si>
+  <si>
+    <t>hira@echigo.ne.jp</t>
+  </si>
+  <si>
+    <t>平石　武</t>
+    <rPh sb="0" eb="2">
+      <t>ヒライシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タケシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -868,9 +892,11 @@
       <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -880,9 +906,11 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -892,9 +920,11 @@
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,9 +934,11 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -916,9 +948,11 @@
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -940,9 +974,11 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -968,7 +1004,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -976,11 +1012,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -988,11 +1024,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1014,16 +1050,14 @@
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1"/>
     <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7"/>
-    <hyperlink ref="E13" r:id="rId8"/>
-    <hyperlink ref="E14" r:id="rId9"/>
-    <hyperlink ref="E4" r:id="rId10"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId11"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
--- a/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
+++ b/平成31年度/シースリーカップ/c3cup チーム担当者連絡先.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">連絡先一覧!$A$1:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>正式チーム名</t>
     <rPh sb="0" eb="2">
@@ -115,16 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上川西</t>
-    <rPh sb="0" eb="2">
-      <t>カミカワ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上組こだまキッズ</t>
     <rPh sb="0" eb="2">
       <t>カミグミ</t>
@@ -152,10 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>t-devils.0921@ezweb.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内野オールスターズ</t>
     <rPh sb="0" eb="2">
       <t>ウチノ</t>
@@ -171,10 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>magara@nseinet.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>槻の森ユナイターズ</t>
     <rPh sb="0" eb="1">
       <t>ツキ</t>
@@ -189,39 +171,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nakagawa.takafumi@nsg.gr.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bb-world@vanilla.ocn.ne.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>thatano@beige.plala.or.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">波多野　智秋 </t>
-  </si>
-  <si>
-    <t>hd10899@nifty.com</t>
-  </si>
-  <si>
-    <t>羽田　邦彦</t>
-  </si>
-  <si>
     <t>戸川　聡</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>江戸　大輔</t>
-  </si>
-  <si>
-    <t>k.k_0428-basket.pian@docomo.ne.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>古俣　楓</t>
   </si>
   <si>
     <t>hira@echigo.ne.jp</t>
@@ -235,6 +193,62 @@
       <t>タケシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬場　哲哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島　優</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nakajima_8280@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邊　日奈子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinako.w@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野塚　幸代</t>
+  </si>
+  <si>
+    <t>梶山　真弓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haruna-k@nct9.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川　貴史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t10125181@docomo.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩野　良良</t>
+  </si>
+  <si>
+    <t>iwano11921492@outlook.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮嶋　昭彦</t>
+  </si>
+  <si>
+    <t>miyahjsc1027@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上川西ミニバスクラブ</t>
   </si>
 </sst>
 </file>
@@ -274,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -359,14 +373,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -376,75 +420,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,38 +492,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -874,7 +849,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -886,178 +861,192 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="17">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13">
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="21">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="21">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="21">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="21">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="13">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="13">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="13">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="22">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="13">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="15">
+      <c r="C15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="C4:E14">
+    <sortCondition ref="C4:C14"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E4" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>